--- a/cypress/downloads/DashboardVendas.xlsx
+++ b/cypress/downloads/DashboardVendas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Descrição</t>
   </si>
@@ -26,10 +26,7 @@
     <t>Vendas(%)</t>
   </si>
   <si>
-    <t>Testes Automatizados</t>
-  </si>
-  <si>
-    <t>21.066,19</t>
+    <t>0,00</t>
   </si>
 </sst>
 </file>
@@ -138,26 +135,15 @@
       </c>
     </row>
     <row r="2" spans="1:3" outlineLevel="0" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s"/>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>21066.19</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" outlineLevel="0" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s"/>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s"/>
+      <c r="C2" s="1" t="s"/>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError sqref="A1:C3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/DashboardVendas.xlsx
+++ b/cypress/downloads/DashboardVendas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Descrição</t>
   </si>
@@ -26,10 +26,7 @@
     <t>Vendas(%)</t>
   </si>
   <si>
-    <t>Empresa Modelo</t>
-  </si>
-  <si>
-    <t>127.811,42</t>
+    <t>0,00</t>
   </si>
 </sst>
 </file>
@@ -138,26 +135,15 @@
       </c>
     </row>
     <row r="2" spans="1:3" outlineLevel="0" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s"/>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>127811.42</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" outlineLevel="0" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s"/>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s"/>
+      <c r="C2" s="1" t="s"/>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError sqref="A1:C3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/DashboardVendas.xlsx
+++ b/cypress/downloads/DashboardVendas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Descrição</t>
   </si>
@@ -26,7 +26,10 @@
     <t>Vendas(%)</t>
   </si>
   <si>
-    <t>0,00</t>
+    <t>Empresa Modelo</t>
+  </si>
+  <si>
+    <t>127.811,42</t>
   </si>
 </sst>
 </file>
@@ -135,15 +138,26 @@
       </c>
     </row>
     <row r="2" spans="1:3" outlineLevel="0" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s"/>
+      <c r="B2" s="4" t="n">
+        <v>127811.42</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s"/>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s"/>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError sqref="A1:C2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/DashboardVendas.xlsx
+++ b/cypress/downloads/DashboardVendas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Descrição</t>
   </si>
@@ -26,10 +26,7 @@
     <t>Vendas(%)</t>
   </si>
   <si>
-    <t>Empresa Modelo</t>
-  </si>
-  <si>
-    <t>127.811,42</t>
+    <t>0,00</t>
   </si>
 </sst>
 </file>
@@ -121,9 +118,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="39.71" min="1" max="1" customWidth="1"/>
-    <col width="39.71" min="2" max="2" customWidth="1"/>
-    <col width="39.71" min="3" max="3" customWidth="1"/>
+    <col width="39.57" min="1" max="1" customWidth="1"/>
+    <col width="39.57" min="2" max="2" customWidth="1"/>
+    <col width="39.57" min="3" max="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -138,26 +135,15 @@
       </c>
     </row>
     <row r="2" spans="1:3" outlineLevel="0" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s"/>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>127811.42</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" outlineLevel="0" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s"/>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s"/>
+      <c r="C2" s="1" t="s"/>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError sqref="A1:C3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/DashboardVendas.xlsx
+++ b/cypress/downloads/DashboardVendas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Descrição</t>
   </si>
@@ -26,7 +26,10 @@
     <t>Vendas(%)</t>
   </si>
   <si>
-    <t>0,00</t>
+    <t>Empresa Modelo</t>
+  </si>
+  <si>
+    <t>127.811,42</t>
   </si>
 </sst>
 </file>
@@ -118,9 +121,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="39.57" min="1" max="1" customWidth="1"/>
-    <col width="39.57" min="2" max="2" customWidth="1"/>
-    <col width="39.57" min="3" max="3" customWidth="1"/>
+    <col width="39.71" min="1" max="1" customWidth="1"/>
+    <col width="39.71" min="2" max="2" customWidth="1"/>
+    <col width="39.71" min="3" max="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -135,15 +138,26 @@
       </c>
     </row>
     <row r="2" spans="1:3" outlineLevel="0" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s"/>
+      <c r="B2" s="4" t="n">
+        <v>127811.42</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s"/>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s"/>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError sqref="A1:C2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>